--- a/Code/Results/Cases/Case_4_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.363114823867761</v>
+        <v>2.21985324739876</v>
       </c>
       <c r="C2">
-        <v>0.40927495731421</v>
+        <v>0.1440013320705305</v>
       </c>
       <c r="D2">
-        <v>0.2610096846547805</v>
+        <v>0.4993298101396988</v>
       </c>
       <c r="E2">
-        <v>0.05940086460591232</v>
+        <v>0.1573178105596469</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008221127718413509</v>
+        <v>0.002537923202066159</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02673602261602515</v>
+        <v>0.05875730790749145</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3922811083136679</v>
+        <v>0.4867042824572394</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.331536960115017</v>
+        <v>6.669693685037032</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.932036962158804</v>
+        <v>2.101953421019232</v>
       </c>
       <c r="C3">
-        <v>0.3648876973277595</v>
+        <v>0.1293848621976394</v>
       </c>
       <c r="D3">
-        <v>0.2466103831923618</v>
+        <v>0.4988679542650516</v>
       </c>
       <c r="E3">
-        <v>0.05949180634750384</v>
+        <v>0.1583032374668072</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000828146254257495</v>
+        <v>0.002541841759727814</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02707362875420216</v>
+        <v>0.05895870412865545</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3517044144958703</v>
+        <v>0.4780200569104238</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.242980307952564</v>
+        <v>6.707583413049122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669127257574814</v>
+        <v>2.030207835951217</v>
       </c>
       <c r="C4">
-        <v>0.3376651996655937</v>
+        <v>0.1203647229137914</v>
       </c>
       <c r="D4">
-        <v>0.2381638837460827</v>
+        <v>0.4988082704621633</v>
       </c>
       <c r="E4">
-        <v>0.05963784813108042</v>
+        <v>0.1589670662510887</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008319645703764988</v>
+        <v>0.002544375977173839</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02729293353709838</v>
+        <v>0.05909110588833144</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3271599268090313</v>
+        <v>0.4728784955073735</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.19715106113992</v>
+        <v>6.734892475370373</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.562367976549922</v>
+        <v>2.001134670383124</v>
       </c>
       <c r="C5">
-        <v>0.3265745138809848</v>
+        <v>0.1166776702344237</v>
       </c>
       <c r="D5">
-        <v>0.2348154061233174</v>
+        <v>0.4988402887268535</v>
       </c>
       <c r="E5">
-        <v>0.05971927293952994</v>
+        <v>0.1592523735416389</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008335499486895885</v>
+        <v>0.002545441031788535</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02738532327396825</v>
+        <v>0.05914726671269044</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3172423169226448</v>
+        <v>0.4708313199006398</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.18050128527355</v>
+        <v>6.747036837558539</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544661661095518</v>
+        <v>1.996317026480142</v>
       </c>
       <c r="C6">
-        <v>0.3247329327982698</v>
+        <v>0.1160647626438731</v>
       </c>
       <c r="D6">
-        <v>0.2342648831080254</v>
+        <v>0.4988490092947302</v>
       </c>
       <c r="E6">
-        <v>0.05973409521012485</v>
+        <v>0.1593006423584455</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.000833814996297854</v>
+        <v>0.002545619839600633</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02740084702622259</v>
+        <v>0.05915672563132546</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.315600369100153</v>
+        <v>0.4704942940030747</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.177855528502675</v>
+        <v>6.749114705741022</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667686017544781</v>
+        <v>2.029815080138974</v>
       </c>
       <c r="C7">
-        <v>0.3375156224396392</v>
+        <v>0.1203150434253359</v>
       </c>
       <c r="D7">
-        <v>0.2381183535646016</v>
+        <v>0.4988084741009402</v>
       </c>
       <c r="E7">
-        <v>0.05963885851997119</v>
+        <v>0.1589708540971202</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000831985831340381</v>
+        <v>0.00254439020961384</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02729416730314504</v>
+        <v>0.05909185435089892</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3270258432775393</v>
+        <v>0.4728506918468298</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.196918469667708</v>
+        <v>6.735052147791436</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.214068759022155</v>
+        <v>2.179068263126283</v>
       </c>
       <c r="C8">
-        <v>0.393960423881623</v>
+        <v>0.1389711368525184</v>
       </c>
       <c r="D8">
-        <v>0.2559593191527227</v>
+        <v>0.4991241141733127</v>
       </c>
       <c r="E8">
-        <v>0.05941302093411593</v>
+        <v>0.1576453951242183</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008241699981714232</v>
+        <v>0.002539247772757327</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02684993586122975</v>
+        <v>0.05882493898685315</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3782082009464176</v>
+        <v>0.4836704770103353</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.299152806343272</v>
+        <v>6.681917779821049</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.302949719221658</v>
+        <v>2.476827536073927</v>
       </c>
       <c r="C9">
-        <v>0.5051602467555369</v>
+        <v>0.1751878194824883</v>
       </c>
       <c r="D9">
-        <v>0.2943565711198204</v>
+        <v>0.5015185338012174</v>
       </c>
       <c r="E9">
-        <v>0.0597232139852526</v>
+        <v>0.1555119702967751</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0008097075131604677</v>
+        <v>0.002530176077038834</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02607414124046237</v>
+        <v>0.05837057019032166</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4819305255071811</v>
+        <v>0.5063963179071607</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.573401633632386</v>
+        <v>6.609879168853723</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.118730269428454</v>
+        <v>2.698647636463136</v>
       </c>
       <c r="C10">
-        <v>0.5875787947506979</v>
+        <v>0.2015662281255004</v>
       </c>
       <c r="D10">
-        <v>0.3250697521908279</v>
+        <v>0.5043595780851007</v>
       </c>
       <c r="E10">
-        <v>0.06046640659306313</v>
+        <v>0.1542278167996525</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007995514482090947</v>
+        <v>0.002524121884755595</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0255623852771123</v>
+        <v>0.05807840011532051</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5608225506966136</v>
+        <v>0.5240095909055782</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.828892211086099</v>
+        <v>6.576653749021318</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.494555140105206</v>
+        <v>2.800217185582198</v>
       </c>
       <c r="C11">
-        <v>0.6253315738399294</v>
+        <v>0.213515519869901</v>
       </c>
       <c r="D11">
-        <v>0.3396894546510794</v>
+        <v>0.5058869331873836</v>
       </c>
       <c r="E11">
-        <v>0.06093016645844251</v>
+        <v>0.1537049924715639</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007950191687854695</v>
+        <v>0.00252149890999145</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02534226288113572</v>
+        <v>0.0579544369440459</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5974550652435369</v>
+        <v>0.5322209379862244</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.959075348498914</v>
+        <v>6.565838098243603</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.637666375621166</v>
+        <v>2.838773204413314</v>
       </c>
       <c r="C12">
-        <v>0.6396743414481421</v>
+        <v>0.2180330254574017</v>
       </c>
       <c r="D12">
-        <v>0.3453283149917041</v>
+        <v>0.5064990703213681</v>
       </c>
       <c r="E12">
-        <v>0.06112512202053999</v>
+        <v>0.1535158225729134</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007933142645447888</v>
+        <v>0.002520524405396758</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02526073776165028</v>
+        <v>0.05790877458350963</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6114484461358245</v>
+        <v>0.5353588936927878</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>4.0105863306174</v>
+        <v>6.562362321563796</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.606807511889031</v>
+        <v>2.830465325002194</v>
       </c>
       <c r="C13">
-        <v>0.6365831401166702</v>
+        <v>0.2170604332789026</v>
       </c>
       <c r="D13">
-        <v>0.3441091570640111</v>
+        <v>0.5063657344946648</v>
       </c>
       <c r="E13">
-        <v>0.06108225324992489</v>
+        <v>0.153556171903217</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007936809615003493</v>
+        <v>0.002520733449642169</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02527821411078968</v>
+        <v>0.05791855197592</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6084290747334649</v>
+        <v>0.5346818132124156</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.999390572200696</v>
+        <v>6.563083295670026</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.506312361879111</v>
+        <v>2.803387339942731</v>
       </c>
       <c r="C14">
-        <v>0.6265105717451434</v>
+        <v>0.2138873277785649</v>
       </c>
       <c r="D14">
-        <v>0.340151251249722</v>
+        <v>0.5059366175969728</v>
       </c>
       <c r="E14">
-        <v>0.06094581028769142</v>
+        <v>0.153689252787899</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007948786849873188</v>
+        <v>0.002521418361561767</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0253355190275748</v>
+        <v>0.05795065466293714</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5986037874226184</v>
+        <v>0.5324785290307545</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.963267573195196</v>
+        <v>6.565539710904147</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.444863272662928</v>
+        <v>2.786813470414529</v>
       </c>
       <c r="C15">
-        <v>0.6203471919428694</v>
+        <v>0.2119427356921335</v>
       </c>
       <c r="D15">
-        <v>0.337740591101408</v>
+        <v>0.5056781670580364</v>
       </c>
       <c r="E15">
-        <v>0.06086479328313743</v>
+        <v>0.1537719160387052</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007956137669973122</v>
+        <v>0.002521840330051099</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02537085856873311</v>
+        <v>0.05797048495659318</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5926017834592159</v>
+        <v>0.5311326615604202</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.941435917026354</v>
+        <v>6.567125113395548</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.094273866344452</v>
+        <v>2.692023035503269</v>
       </c>
       <c r="C16">
-        <v>0.5851175619816615</v>
+        <v>0.2007842839474279</v>
       </c>
       <c r="D16">
-        <v>0.3241281536540583</v>
+        <v>0.5042644875068873</v>
       </c>
       <c r="E16">
-        <v>0.06043873344558293</v>
+        <v>0.1542632182326464</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007998493050832993</v>
+        <v>0.002524295932275802</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.02557702650221572</v>
+        <v>0.05808668085229662</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5584447058182604</v>
+        <v>0.5234769540563775</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.820682496009738</v>
+        <v>6.577447226061992</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.880486731011388</v>
+        <v>2.634040824240287</v>
       </c>
       <c r="C17">
-        <v>0.5635782124923878</v>
+        <v>0.1939258974310007</v>
       </c>
       <c r="D17">
-        <v>0.3159498435656474</v>
+        <v>0.5034573994111042</v>
       </c>
       <c r="E17">
-        <v>0.06021041418723172</v>
+        <v>0.1545803214631931</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0008024692957474568</v>
+        <v>0.00252583587733545</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02570675574956027</v>
+        <v>0.0581602498891538</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5376908718536413</v>
+        <v>0.5188313056064544</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.75031990012755</v>
+        <v>6.584881744329323</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.757958945128848</v>
+        <v>2.600753428533949</v>
       </c>
       <c r="C18">
-        <v>0.5512132323495678</v>
+        <v>0.1899764039935405</v>
       </c>
       <c r="D18">
-        <v>0.3113062810478766</v>
+        <v>0.5030152996945674</v>
       </c>
       <c r="E18">
-        <v>0.060090837894057</v>
+        <v>0.1547684853158326</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0008039845870267941</v>
+        <v>0.002526733959098246</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02578256535811541</v>
+        <v>0.05820340733109752</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5258229131086551</v>
+        <v>0.5161779873179739</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.711149625890471</v>
+        <v>6.589562398869305</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.716544847797195</v>
+        <v>2.589493656174113</v>
       </c>
       <c r="C19">
-        <v>0.547030499538522</v>
+        <v>0.1886383666140148</v>
       </c>
       <c r="D19">
-        <v>0.309744146805258</v>
+        <v>0.502869411534931</v>
       </c>
       <c r="E19">
-        <v>0.06005233222104245</v>
+        <v>0.154833186403037</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0008044991076784358</v>
+        <v>0.002527040157327502</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02580843784960507</v>
+        <v>0.05821816460110618</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5218160765418389</v>
+        <v>0.5152828408191823</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.698104637006679</v>
+        <v>6.591216611904912</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.903198716535712</v>
+        <v>2.640206677879348</v>
       </c>
       <c r="C20">
-        <v>0.5658685774749301</v>
+        <v>0.1946564753869495</v>
       </c>
       <c r="D20">
-        <v>0.31681412305187</v>
+        <v>0.5035410265739699</v>
       </c>
       <c r="E20">
-        <v>0.06023349459235128</v>
+        <v>0.1545459677119148</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0008021895385625038</v>
+        <v>0.002525670670338931</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02569282235333503</v>
+        <v>0.05815233119500895</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5398929014555733</v>
+        <v>0.5193239045796219</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.75767409973659</v>
+        <v>6.584048448787513</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.535807683093708</v>
+        <v>2.811338265121492</v>
       </c>
       <c r="C21">
-        <v>0.6294677862119613</v>
+        <v>0.2148195489551767</v>
       </c>
       <c r="D21">
-        <v>0.3413109167605484</v>
+        <v>0.5060617435631229</v>
       </c>
       <c r="E21">
-        <v>0.06098535132442606</v>
+        <v>0.1536499246115444</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007945265864890016</v>
+        <v>0.00252121667785404</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02531863743990392</v>
+        <v>0.05794119064513481</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6014862943827524</v>
+        <v>0.5331249145246062</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.97381595630128</v>
+        <v>6.564801365222877</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.953947365893725</v>
+        <v>2.923728949298891</v>
       </c>
       <c r="C22">
-        <v>0.6713101978871236</v>
+        <v>0.2279538802532954</v>
       </c>
       <c r="D22">
-        <v>0.3579246638111044</v>
+        <v>0.5079059514056894</v>
       </c>
       <c r="E22">
-        <v>0.06159013666997382</v>
+        <v>0.1531156696536957</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007895840213797056</v>
+        <v>0.002518415033861803</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02508475982058478</v>
+        <v>0.05781065471095026</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6424567592649169</v>
+        <v>0.5423107211064035</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.128089771004454</v>
+        <v>6.555836195593884</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.730307700923618</v>
+        <v>2.863694404024614</v>
       </c>
       <c r="C23">
-        <v>0.6489495077526044</v>
+        <v>0.2209478727637588</v>
       </c>
       <c r="D23">
-        <v>0.3489989767768833</v>
+        <v>0.5069036660817972</v>
       </c>
       <c r="E23">
-        <v>0.0612565243651666</v>
+        <v>0.1533961149143952</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007922164008006496</v>
+        <v>0.002519900354462147</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02520860519958745</v>
+        <v>0.05787964410304802</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6205194197227399</v>
+        <v>0.5373929275986455</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.044486685193647</v>
+        <v>6.560289832270257</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.89292944884528</v>
+        <v>2.637418947849028</v>
       </c>
       <c r="C24">
-        <v>0.5648330472151883</v>
+        <v>0.1943262013772369</v>
       </c>
       <c r="D24">
-        <v>0.3164232015456463</v>
+        <v>0.5035031504980054</v>
       </c>
       <c r="E24">
-        <v>0.06022302363160037</v>
+        <v>0.1545614807981455</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0008023159885963861</v>
+        <v>0.002525745320674586</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.0256991178219117</v>
+        <v>0.05815590855188013</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5388971665447144</v>
+        <v>0.5191011459837114</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.754345287909473</v>
+        <v>6.58442391570739</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.006008391269347</v>
+        <v>2.395736467477889</v>
       </c>
       <c r="C25">
-        <v>0.474983170771111</v>
+        <v>0.1654302363887723</v>
       </c>
       <c r="D25">
-        <v>0.2835623619023693</v>
+        <v>0.5006807602118926</v>
       </c>
       <c r="E25">
-        <v>0.05955315390177418</v>
+        <v>0.1560393231853539</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0008135331239003416</v>
+        <v>0.002532522481718646</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02627380169508342</v>
+        <v>0.05848614244936101</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4534488893494455</v>
+        <v>0.5000872124902145</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.490427804359939</v>
+        <v>6.625914799076526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_195/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_195/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.21985324739876</v>
+        <v>3.363114823867704</v>
       </c>
       <c r="C2">
-        <v>0.1440013320705305</v>
+        <v>0.4092749573140964</v>
       </c>
       <c r="D2">
-        <v>0.4993298101396988</v>
+        <v>0.2610096846546384</v>
       </c>
       <c r="E2">
-        <v>0.1573178105596469</v>
+        <v>0.05940086460590699</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002537923202066159</v>
+        <v>0.0008221127718693024</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,13 +445,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05875730790749145</v>
+        <v>0.02673602261592833</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4867042824572394</v>
+        <v>0.3922811083138384</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>6.669693685037032</v>
+        <v>3.331536960115045</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.101953421019232</v>
+        <v>2.932036962158861</v>
       </c>
       <c r="C3">
-        <v>0.1293848621976394</v>
+        <v>0.3648876973276742</v>
       </c>
       <c r="D3">
-        <v>0.4988679542650516</v>
+        <v>0.2466103831925039</v>
       </c>
       <c r="E3">
-        <v>0.1583032374668072</v>
+        <v>0.0594918063475518</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002541841759727814</v>
+        <v>0.0008281462541991221</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,13 +492,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05895870412865545</v>
+        <v>0.02707362875421104</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.4780200569104238</v>
+        <v>0.3517044144958419</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.707583413049122</v>
+        <v>3.242980307952507</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.030207835951217</v>
+        <v>2.669127257574814</v>
       </c>
       <c r="C4">
-        <v>0.1203647229137914</v>
+        <v>0.3376651996659632</v>
       </c>
       <c r="D4">
-        <v>0.4988082704621633</v>
+        <v>0.2381638837459548</v>
       </c>
       <c r="E4">
-        <v>0.1589670662510887</v>
+        <v>0.05963784813106443</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002544375977173839</v>
+        <v>0.0008319645703476971</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,13 +539,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05909110588833144</v>
+        <v>0.02729293353722539</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.4728784955073735</v>
+        <v>0.3271599268091308</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.734892475370373</v>
+        <v>3.19715106113992</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.001134670383124</v>
+        <v>2.562367976549922</v>
       </c>
       <c r="C5">
-        <v>0.1166776702344237</v>
+        <v>0.3265745138810701</v>
       </c>
       <c r="D5">
-        <v>0.4988402887268535</v>
+        <v>0.2348154061231327</v>
       </c>
       <c r="E5">
-        <v>0.1592523735416389</v>
+        <v>0.05971927293953883</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002545441031788535</v>
+        <v>0.0008335499486872824</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,13 +586,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05914726671269044</v>
+        <v>0.02738532327400023</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.4708313199006398</v>
+        <v>0.3172423169226732</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.747036837558539</v>
+        <v>3.180501285273692</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.996317026480142</v>
+        <v>2.544661661095574</v>
       </c>
       <c r="C6">
-        <v>0.1160647626438731</v>
+        <v>0.3247329327982413</v>
       </c>
       <c r="D6">
-        <v>0.4988490092947302</v>
+        <v>0.2342648831081675</v>
       </c>
       <c r="E6">
-        <v>0.1593006423584455</v>
+        <v>0.05973409521012663</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002545619839600633</v>
+        <v>0.0008338149962983717</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05915672563132546</v>
+        <v>0.02740084702631584</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.4704942940030747</v>
+        <v>0.315600369100153</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.749114705741022</v>
+        <v>3.177855528502675</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.029815080138974</v>
+        <v>2.667686017544781</v>
       </c>
       <c r="C7">
-        <v>0.1203150434253359</v>
+        <v>0.3375156224401508</v>
       </c>
       <c r="D7">
-        <v>0.4988084741009402</v>
+        <v>0.2381183535646016</v>
       </c>
       <c r="E7">
-        <v>0.1589708540971202</v>
+        <v>0.05963885851996942</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.00254439020961384</v>
+        <v>0.0008319858313696193</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,13 +680,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05909185435089892</v>
+        <v>0.0272941673032232</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.4728506918468298</v>
+        <v>0.3270258432775819</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.735052147791436</v>
+        <v>3.196918469667651</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.179068263126283</v>
+        <v>3.214068759022268</v>
       </c>
       <c r="C8">
-        <v>0.1389711368525184</v>
+        <v>0.3939604238819356</v>
       </c>
       <c r="D8">
-        <v>0.4991241141733127</v>
+        <v>0.2559593191526091</v>
       </c>
       <c r="E8">
-        <v>0.1576453951242183</v>
+        <v>0.05941302093411416</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002539247772757327</v>
+        <v>0.0008241699981429157</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05882493898685315</v>
+        <v>0.02684993586120399</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4836704770103353</v>
+        <v>0.3782082009463323</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.681917779821049</v>
+        <v>3.299152806343301</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.476827536073927</v>
+        <v>4.302949719221772</v>
       </c>
       <c r="C9">
-        <v>0.1751878194824883</v>
+        <v>0.5051602467557643</v>
       </c>
       <c r="D9">
-        <v>0.5015185338012174</v>
+        <v>0.2943565711198062</v>
       </c>
       <c r="E9">
-        <v>0.1555119702967751</v>
+        <v>0.05972321398525793</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002530176077038834</v>
+        <v>0.0008097075131321019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05837057019032166</v>
+        <v>0.02607414124037444</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5063963179071607</v>
+        <v>0.4819305255071384</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>6.609879168853723</v>
+        <v>3.573401633632471</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.698647636463136</v>
+        <v>5.118730269428511</v>
       </c>
       <c r="C10">
-        <v>0.2015662281255004</v>
+        <v>0.5875787947507263</v>
       </c>
       <c r="D10">
-        <v>0.5043595780851007</v>
+        <v>0.3250697521907995</v>
       </c>
       <c r="E10">
-        <v>0.1542278167996525</v>
+        <v>0.06046640659307911</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002524121884755595</v>
+        <v>0.0007995514481511368</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,13 +821,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05807840011532051</v>
+        <v>0.02556238527716204</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5240095909055782</v>
+        <v>0.5608225506965709</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>6.576653749021318</v>
+        <v>3.828892211086128</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.800217185582198</v>
+        <v>5.494555140105092</v>
       </c>
       <c r="C11">
-        <v>0.213515519869901</v>
+        <v>0.6253315738400715</v>
       </c>
       <c r="D11">
-        <v>0.5058869331873836</v>
+        <v>0.3396894546509088</v>
       </c>
       <c r="E11">
-        <v>0.1537049924715639</v>
+        <v>0.06093016645846383</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00252149890999145</v>
+        <v>0.0007950191687166836</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0579544369440459</v>
+        <v>0.02534226288103092</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5322209379862244</v>
+        <v>0.5974550652435084</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>6.565838098243603</v>
+        <v>3.959075348498914</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.838773204413314</v>
+        <v>5.637666375621109</v>
       </c>
       <c r="C12">
-        <v>0.2180330254574017</v>
+        <v>0.6396743414480568</v>
       </c>
       <c r="D12">
-        <v>0.5064990703213681</v>
+        <v>0.3453283149918036</v>
       </c>
       <c r="E12">
-        <v>0.1535158225729134</v>
+        <v>0.06112512202057196</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002520524405396758</v>
+        <v>0.0007933142645835849</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,13 +915,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05790877458350963</v>
+        <v>0.02526073776175686</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5353588936927878</v>
+        <v>0.611448446135924</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.562362321563796</v>
+        <v>4.010586330617457</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.830465325002194</v>
+        <v>5.606807511889031</v>
       </c>
       <c r="C13">
-        <v>0.2170604332789026</v>
+        <v>0.6365831401166986</v>
       </c>
       <c r="D13">
-        <v>0.5063657344946648</v>
+        <v>0.3441091570637838</v>
       </c>
       <c r="E13">
-        <v>0.153556171903217</v>
+        <v>0.06108225324992667</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002520733449642169</v>
+        <v>0.0007936809615403222</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05791855197592</v>
+        <v>0.02527821411076303</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5346818132124156</v>
+        <v>0.6084290747336496</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.563083295670026</v>
+        <v>3.999390572200582</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.803387339942731</v>
+        <v>5.506312361878997</v>
       </c>
       <c r="C14">
-        <v>0.2138873277785649</v>
+        <v>0.6265105717451718</v>
       </c>
       <c r="D14">
-        <v>0.5059366175969728</v>
+        <v>0.3401512512496936</v>
       </c>
       <c r="E14">
-        <v>0.153689252787899</v>
+        <v>0.06094581028771806</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002521418361561767</v>
+        <v>0.0007948786849889885</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,13 +1009,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05795065466293714</v>
+        <v>0.02533551902761921</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5324785290307545</v>
+        <v>0.5986037874226326</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>6.565539710904147</v>
+        <v>3.963267573195196</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.786813470414529</v>
+        <v>5.444863272663099</v>
       </c>
       <c r="C15">
-        <v>0.2119427356921335</v>
+        <v>0.6203471919427557</v>
       </c>
       <c r="D15">
-        <v>0.5056781670580364</v>
+        <v>0.3377405911012517</v>
       </c>
       <c r="E15">
-        <v>0.1537719160387052</v>
+        <v>0.06086479328314631</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002521840330051099</v>
+        <v>0.0007956137670095398</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05797048495659318</v>
+        <v>0.02537085856877574</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5311326615604202</v>
+        <v>0.5926017834592585</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>6.567125113395548</v>
+        <v>3.941435917026297</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.692023035503269</v>
+        <v>5.094273866344338</v>
       </c>
       <c r="C16">
-        <v>0.2007842839474279</v>
+        <v>0.5851175619818036</v>
       </c>
       <c r="D16">
-        <v>0.5042644875068873</v>
+        <v>0.3241281536538878</v>
       </c>
       <c r="E16">
-        <v>0.1542632182326464</v>
+        <v>0.0604387334455847</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002524295932275802</v>
+        <v>0.0007998493050752519</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,13 +1103,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05808668085229662</v>
+        <v>0.02557702650216775</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5234769540563775</v>
+        <v>0.5584447058182178</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>6.577447226061992</v>
+        <v>3.820682496009738</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.634040824240287</v>
+        <v>4.880486731011445</v>
       </c>
       <c r="C17">
-        <v>0.1939258974310007</v>
+        <v>0.5635782124923878</v>
       </c>
       <c r="D17">
-        <v>0.5034573994111042</v>
+        <v>0.3159498435657468</v>
       </c>
       <c r="E17">
-        <v>0.1545803214631931</v>
+        <v>0.06021041418722994</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.00252583587733545</v>
+        <v>0.0008024692957393498</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,13 +1150,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0581602498891538</v>
+        <v>0.02570675574959758</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5188313056064544</v>
+        <v>0.5376908718536413</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>6.584881744329323</v>
+        <v>3.75031990012755</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.600753428533949</v>
+        <v>4.757958945129019</v>
       </c>
       <c r="C18">
-        <v>0.1899764039935405</v>
+        <v>0.5512132323497383</v>
       </c>
       <c r="D18">
-        <v>0.5030152996945674</v>
+        <v>0.311306281047834</v>
       </c>
       <c r="E18">
-        <v>0.1547684853158326</v>
+        <v>0.06009083789406056</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002526733959098246</v>
+        <v>0.00080398458709314</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,13 +1197,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05820340733109752</v>
+        <v>0.02578256535816692</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5161779873179739</v>
+        <v>0.5258229131088115</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>6.589562398869305</v>
+        <v>3.711149625890414</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.589493656174113</v>
+        <v>4.716544847797081</v>
       </c>
       <c r="C19">
-        <v>0.1886383666140148</v>
+        <v>0.5470304995385504</v>
       </c>
       <c r="D19">
-        <v>0.502869411534931</v>
+        <v>0.3097441468051159</v>
       </c>
       <c r="E19">
-        <v>0.154833186403037</v>
+        <v>0.06005233222103001</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002527040157327502</v>
+        <v>0.0008044991076792261</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,13 +1244,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05821816460110618</v>
+        <v>0.02580843784962283</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5152828408191823</v>
+        <v>0.5218160765418247</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>6.591216611904912</v>
+        <v>3.698104637006708</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.640206677879348</v>
+        <v>4.903198716535712</v>
       </c>
       <c r="C20">
-        <v>0.1946564753869495</v>
+        <v>0.5658685774747028</v>
       </c>
       <c r="D20">
-        <v>0.5035410265739699</v>
+        <v>0.3168141230517563</v>
       </c>
       <c r="E20">
-        <v>0.1545459677119148</v>
+        <v>0.06023349459232996</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002525670670338931</v>
+        <v>0.0008021895384979376</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05815233119500895</v>
+        <v>0.02569282235339365</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5193239045796219</v>
+        <v>0.5398929014555307</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>6.584048448787513</v>
+        <v>3.75767409973659</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.811338265121492</v>
+        <v>5.535807683093708</v>
       </c>
       <c r="C21">
-        <v>0.2148195489551767</v>
+        <v>0.6294677862119613</v>
       </c>
       <c r="D21">
-        <v>0.5060617435631229</v>
+        <v>0.3413109167606478</v>
       </c>
       <c r="E21">
-        <v>0.1536499246115444</v>
+        <v>0.06098535132443672</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.00252121667785404</v>
+        <v>0.0007945265864216927</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05794119064513481</v>
+        <v>0.02531863743979734</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5331249145246062</v>
+        <v>0.6014862943827524</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.564801365222877</v>
+        <v>3.973815956301337</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.923728949298891</v>
+        <v>5.953947365893669</v>
       </c>
       <c r="C22">
-        <v>0.2279538802532954</v>
+        <v>0.6713101978871236</v>
       </c>
       <c r="D22">
-        <v>0.5079059514056894</v>
+        <v>0.3579246638109765</v>
       </c>
       <c r="E22">
-        <v>0.1531156696536957</v>
+        <v>0.06159013666999158</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002518415033861803</v>
+        <v>0.0007895840213905103</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,13 +1385,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05781065471095026</v>
+        <v>0.02508475982052616</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5423107211064035</v>
+        <v>0.6424567592650305</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>6.555836195593884</v>
+        <v>4.128089771004397</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.863694404024614</v>
+        <v>5.730307700923504</v>
       </c>
       <c r="C23">
-        <v>0.2209478727637588</v>
+        <v>0.6489495077522633</v>
       </c>
       <c r="D23">
-        <v>0.5069036660817972</v>
+        <v>0.3489989767768549</v>
       </c>
       <c r="E23">
-        <v>0.1533961149143952</v>
+        <v>0.06125652436517726</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002519900354462147</v>
+        <v>0.0007922164007588603</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05787964410304802</v>
+        <v>0.02520860519955193</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5373929275986455</v>
+        <v>0.6205194197227399</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>6.560289832270257</v>
+        <v>4.044486685193647</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.637418947849028</v>
+        <v>4.892929448845223</v>
       </c>
       <c r="C24">
-        <v>0.1943262013772369</v>
+        <v>0.5648330472151315</v>
       </c>
       <c r="D24">
-        <v>0.5035031504980054</v>
+        <v>0.3164232015456463</v>
       </c>
       <c r="E24">
-        <v>0.1545614807981455</v>
+        <v>0.06022302363161636</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002525745320674586</v>
+        <v>0.0008023159885593392</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05815590855188013</v>
+        <v>0.02569911782189926</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5191011459837114</v>
+        <v>0.5388971665447002</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>6.58442391570739</v>
+        <v>3.754345287909501</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.395736467477889</v>
+        <v>4.006008391269461</v>
       </c>
       <c r="C25">
-        <v>0.1654302363887723</v>
+        <v>0.4749831707708836</v>
       </c>
       <c r="D25">
-        <v>0.5006807602118926</v>
+        <v>0.2835623619023551</v>
       </c>
       <c r="E25">
-        <v>0.1560393231853539</v>
+        <v>0.0595531539018026</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002532522481718646</v>
+        <v>0.0008135331239002512</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,13 +1526,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05848614244936101</v>
+        <v>0.02627380169518378</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5000872124902145</v>
+        <v>0.4534488893494029</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>6.625914799076526</v>
+        <v>3.490427804359967</v>
       </c>
     </row>
   </sheetData>
